--- a/Recycling/WIND Installed capacity.xlsx
+++ b/Recycling/WIND Installed capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10421550_polimi_it/Documents/Documenti/Tesi di laurea/2022-23_WasteMARIO/dMRWIO model/dMRWIO/End of Life/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Recycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="14_{0C8DC3DD-D946-4783-8604-461B209D86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC5A2B84-A404-4961-B4C5-BC0D29ACA30C}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="14_{0C8DC3DD-D946-4783-8604-461B209D86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E694B2-307C-4EB9-90F5-5A636B841DBE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9460" yWindow="8310" windowWidth="8650" windowHeight="8430" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Offshore_calc" sheetId="4" r:id="rId5"/>
     <sheet name="Wind Capacity LUT" sheetId="11" r:id="rId6"/>
     <sheet name="Onshore" sheetId="6" r:id="rId7"/>
-    <sheet name="Offshore" sheetId="7" r:id="rId8"/>
+    <sheet name="Cost_Onshore" sheetId="12" r:id="rId8"/>
+    <sheet name="Offshore" sheetId="7" r:id="rId9"/>
+    <sheet name="Cost_Offshore" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="136">
   <si>
     <t>Installed renewable electricity capacity (MW) by Region/country/area, Technology and Year</t>
   </si>
@@ -433,6 +435,21 @@
   </si>
   <si>
     <t>Add (2043)</t>
+  </si>
+  <si>
+    <t>USD/kW</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -8311,10 +8328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Z6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8910,8 +8927,654 @@
         <v>0.13099250353443914</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F78B869-0DF3-4244-AC5C-1C86B06A6535}">
+  <dimension ref="A1:CW2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:CW2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:101" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>2041</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>2043</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>2045</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>2047</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>2050</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>2051</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>2052</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>2053</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>2054</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>2055</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>2056</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>2057</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>2058</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>2059</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>2060</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>2061</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>2062</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>2063</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>2064</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>2065</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>2066</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>2067</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>2068</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>2069</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>2070</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>2071</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>2072</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>2073</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>2074</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>2075</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>2076</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>2077</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>2078</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>2079</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>2080</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>2081</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>2082</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>2083</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>2084</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>2085</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>2086</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>2087</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>2088</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>2089</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>2090</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>2091</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>2092</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>2093</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>2094</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>2095</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>2096</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>2097</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>2098</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>2099</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4875.53</v>
+      </c>
+      <c r="B2">
+        <v>4875.53</v>
+      </c>
+      <c r="C2">
+        <v>4875.53</v>
+      </c>
+      <c r="D2">
+        <v>4875.53</v>
+      </c>
+      <c r="E2">
+        <v>4875.53</v>
+      </c>
+      <c r="F2">
+        <v>4875.53</v>
+      </c>
+      <c r="G2">
+        <v>4875.53</v>
+      </c>
+      <c r="H2">
+        <v>4875.53</v>
+      </c>
+      <c r="I2">
+        <v>4875.53</v>
+      </c>
+      <c r="J2">
+        <v>4875.53</v>
+      </c>
+      <c r="K2">
+        <v>4875.53</v>
+      </c>
+      <c r="L2">
+        <v>5584.12</v>
+      </c>
+      <c r="M2">
+        <v>4941.8100000000004</v>
+      </c>
+      <c r="N2">
+        <v>5222.7299999999996</v>
+      </c>
+      <c r="O2">
+        <v>5499.21</v>
+      </c>
+      <c r="P2">
+        <v>5515.16</v>
+      </c>
+      <c r="Q2">
+        <v>4342.4799999999996</v>
+      </c>
+      <c r="R2">
+        <v>4905.6099999999997</v>
+      </c>
+      <c r="S2">
+        <v>4798.1000000000004</v>
+      </c>
+      <c r="T2">
+        <v>3844.2</v>
+      </c>
+      <c r="U2">
+        <v>3255.11</v>
+      </c>
+      <c r="V2">
+        <v>2857.7</v>
+      </c>
+      <c r="W2">
+        <v>2857.7</v>
+      </c>
+      <c r="X2">
+        <v>2857.7</v>
+      </c>
+      <c r="Y2">
+        <v>2857.7</v>
+      </c>
+      <c r="Z2">
+        <v>2857.7</v>
+      </c>
+      <c r="AA2">
+        <v>2857.7</v>
+      </c>
+      <c r="AB2">
+        <v>2857.7</v>
+      </c>
+      <c r="AC2">
+        <v>2857.7</v>
+      </c>
+      <c r="AD2">
+        <v>2857.7</v>
+      </c>
+      <c r="AE2">
+        <v>2857.7</v>
+      </c>
+      <c r="AF2">
+        <v>2857.7</v>
+      </c>
+      <c r="AG2">
+        <v>2857.7</v>
+      </c>
+      <c r="AH2">
+        <v>2857.7</v>
+      </c>
+      <c r="AI2">
+        <v>2857.7</v>
+      </c>
+      <c r="AJ2">
+        <v>2857.7</v>
+      </c>
+      <c r="AK2">
+        <v>2857.7</v>
+      </c>
+      <c r="AL2">
+        <v>2857.7</v>
+      </c>
+      <c r="AM2">
+        <v>2857.7</v>
+      </c>
+      <c r="AN2">
+        <v>2857.7</v>
+      </c>
+      <c r="AO2">
+        <v>2857.7</v>
+      </c>
+      <c r="AP2">
+        <v>2857.7</v>
+      </c>
+      <c r="AQ2">
+        <v>2857.7</v>
+      </c>
+      <c r="AR2">
+        <v>2857.7</v>
+      </c>
+      <c r="AS2">
+        <v>2857.7</v>
+      </c>
+      <c r="AT2">
+        <v>2857.7</v>
+      </c>
+      <c r="AU2">
+        <v>2857.7</v>
+      </c>
+      <c r="AV2">
+        <v>2857.7</v>
+      </c>
+      <c r="AW2">
+        <v>2857.7</v>
+      </c>
+      <c r="AX2">
+        <v>2857.7</v>
+      </c>
+      <c r="AY2">
+        <v>2857.7</v>
+      </c>
+      <c r="AZ2">
+        <v>2857.7</v>
+      </c>
+      <c r="BA2">
+        <v>2857.7</v>
+      </c>
+      <c r="BB2">
+        <v>2857.7</v>
+      </c>
+      <c r="BC2">
+        <v>2857.7</v>
+      </c>
+      <c r="BD2">
+        <v>2857.7</v>
+      </c>
+      <c r="BE2">
+        <v>2857.7</v>
+      </c>
+      <c r="BF2">
+        <v>2857.7</v>
+      </c>
+      <c r="BG2">
+        <v>2857.7</v>
+      </c>
+      <c r="BH2">
+        <v>2857.7</v>
+      </c>
+      <c r="BI2">
+        <v>2857.7</v>
+      </c>
+      <c r="BJ2">
+        <v>2857.7</v>
+      </c>
+      <c r="BK2">
+        <v>2857.7</v>
+      </c>
+      <c r="BL2">
+        <v>2857.7</v>
+      </c>
+      <c r="BM2">
+        <v>2857.7</v>
+      </c>
+      <c r="BN2">
+        <v>2857.7</v>
+      </c>
+      <c r="BO2">
+        <v>2857.7</v>
+      </c>
+      <c r="BP2">
+        <v>2857.7</v>
+      </c>
+      <c r="BQ2">
+        <v>2857.7</v>
+      </c>
+      <c r="BR2">
+        <v>2857.7</v>
+      </c>
+      <c r="BS2">
+        <v>2857.7</v>
+      </c>
+      <c r="BT2">
+        <v>2857.7</v>
+      </c>
+      <c r="BU2">
+        <v>2857.7</v>
+      </c>
+      <c r="BV2">
+        <v>2857.7</v>
+      </c>
+      <c r="BW2">
+        <v>2857.7</v>
+      </c>
+      <c r="BX2">
+        <v>2857.7</v>
+      </c>
+      <c r="BY2">
+        <v>2857.7</v>
+      </c>
+      <c r="BZ2">
+        <v>2857.7</v>
+      </c>
+      <c r="CA2">
+        <v>2857.7</v>
+      </c>
+      <c r="CB2">
+        <v>2857.7</v>
+      </c>
+      <c r="CC2">
+        <v>2857.7</v>
+      </c>
+      <c r="CD2">
+        <v>2857.7</v>
+      </c>
+      <c r="CE2">
+        <v>2857.7</v>
+      </c>
+      <c r="CF2">
+        <v>2857.7</v>
+      </c>
+      <c r="CG2">
+        <v>2857.7</v>
+      </c>
+      <c r="CH2">
+        <v>2857.7</v>
+      </c>
+      <c r="CI2">
+        <v>2857.7</v>
+      </c>
+      <c r="CJ2">
+        <v>2857.7</v>
+      </c>
+      <c r="CK2">
+        <v>2857.7</v>
+      </c>
+      <c r="CL2">
+        <v>2857.7</v>
+      </c>
+      <c r="CM2">
+        <v>2857.7</v>
+      </c>
+      <c r="CN2">
+        <v>2857.7</v>
+      </c>
+      <c r="CO2">
+        <v>2857.7</v>
+      </c>
+      <c r="CP2">
+        <v>2857.7</v>
+      </c>
+      <c r="CQ2">
+        <v>2857.7</v>
+      </c>
+      <c r="CR2">
+        <v>2857.7</v>
+      </c>
+      <c r="CS2">
+        <v>2857.7</v>
+      </c>
+      <c r="CT2">
+        <v>2857.7</v>
+      </c>
+      <c r="CU2">
+        <v>2857.7</v>
+      </c>
+      <c r="CV2">
+        <v>2857.7</v>
+      </c>
+      <c r="CW2">
+        <v>2857.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10268,7 +10931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC717A1-EDC0-4874-B950-C1C9AB53262D}">
   <dimension ref="A1:CW5"/>
   <sheetViews>
-    <sheetView topLeftCell="CD1" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="CW5" sqref="CW5"/>
     </sheetView>
   </sheetViews>
@@ -11714,7 +12377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797AB11-7B95-4D6C-9E12-BB0450DE51D2}">
   <dimension ref="A1:CX9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
@@ -14007,8 +14670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CEF8FC-79BD-4F04-AE5E-CD6EF66A03F5}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CW2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:CW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14443,49 +15106,49 @@
         <v>1475706.0659559097</v>
       </c>
       <c r="AP2">
-        <v>1460108.5907988837</v>
+        <v>1476338.9252120527</v>
       </c>
       <c r="AQ2">
-        <v>1444511.1156418575</v>
+        <v>1476971.7844681956</v>
       </c>
       <c r="AR2">
-        <v>1428913.6404848315</v>
+        <v>1477604.6437243386</v>
       </c>
       <c r="AS2">
-        <v>1413316.1653278053</v>
+        <v>1478237.5029804816</v>
       </c>
       <c r="AT2">
-        <v>1397718.6901707794</v>
+        <v>1478870.3622366246</v>
       </c>
       <c r="AU2">
-        <v>1399335.7899535114</v>
+        <v>1479503.2214927676</v>
       </c>
       <c r="AV2">
-        <v>1400952.8897362433</v>
+        <v>1480136.0807489106</v>
       </c>
       <c r="AW2">
-        <v>1402569.9895189754</v>
+        <v>1480768.9400050535</v>
       </c>
       <c r="AX2">
-        <v>1404187.0893017072</v>
+        <v>1481401.7992611965</v>
       </c>
       <c r="AY2">
-        <v>1405804.1890844398</v>
+        <v>1482034.6585173395</v>
       </c>
       <c r="AZ2">
-        <v>1418545.4395679461</v>
+        <v>1482667.5177734825</v>
       </c>
       <c r="BA2">
-        <v>1431286.6900514525</v>
+        <v>1483300.3770296255</v>
       </c>
       <c r="BB2">
-        <v>1444027.9405349591</v>
+        <v>1483933.2362857684</v>
       </c>
       <c r="BC2">
-        <v>1456769.1910184654</v>
+        <v>1484566.0955419114</v>
       </c>
       <c r="BD2">
-        <v>1469510.4415019723</v>
+        <v>1485198.9547980544</v>
       </c>
       <c r="BE2">
         <v>1485831.8140541965</v>
@@ -14630,11 +15293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA6C78-93EF-4EAE-87B0-239DA542AADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0FCB79-2784-4B52-8A80-5C88BDEF2E58}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="CW27" sqref="CW27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14946,6 +15609,631 @@
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="B2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="C2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="D2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="E2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="F2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="G2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="H2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="I2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="J2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="K2">
+        <v>2042.379565795</v>
+      </c>
+      <c r="L2">
+        <v>2003.9103489260001</v>
+      </c>
+      <c r="M2">
+        <v>1904.2344789379999</v>
+      </c>
+      <c r="N2">
+        <v>1962.2156091009999</v>
+      </c>
+      <c r="O2">
+        <v>1894.432877042</v>
+      </c>
+      <c r="P2">
+        <v>1724.514662387</v>
+      </c>
+      <c r="Q2">
+        <v>1729.4095054740001</v>
+      </c>
+      <c r="R2">
+        <v>1728.5829808819999</v>
+      </c>
+      <c r="S2">
+        <v>1635.633155966</v>
+      </c>
+      <c r="T2">
+        <v>1553.3817689970001</v>
+      </c>
+      <c r="U2">
+        <v>1396.50929922</v>
+      </c>
+      <c r="V2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="W2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="X2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="Y2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="Z2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AA2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AB2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AC2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AD2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AE2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AF2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AG2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AH2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AI2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AJ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AK2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AL2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AM2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AN2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AO2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AP2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AQ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AR2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AS2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AT2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AU2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AV2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AW2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AX2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AY2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="AZ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BA2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BB2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BC2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BD2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BE2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BF2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BG2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BH2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BI2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BJ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BK2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BL2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BM2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BN2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BO2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BP2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BQ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BR2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BS2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BT2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BU2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BV2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BW2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BX2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BY2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="BZ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CA2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CB2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CC2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CD2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CE2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CF2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CG2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CH2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CI2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CJ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CK2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CL2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CM2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CN2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CO2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CP2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CQ2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CR2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CS2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CT2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CU2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CV2">
+        <v>1325.1994007759999</v>
+      </c>
+      <c r="CW2">
+        <v>1325.1994007759999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA6C78-93EF-4EAE-87B0-239DA542AADB}">
+  <dimension ref="A1:CW2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:101" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>2041</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>2043</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>2045</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>2047</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>2050</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>2051</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>2052</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>2053</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>2054</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>2055</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>2056</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>2057</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>2058</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>2059</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>2060</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>2061</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>2062</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>2063</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>2064</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>2065</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>2066</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>2067</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>2068</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>2069</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>2070</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>2071</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>2072</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>2073</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>2074</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>2075</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>2076</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>2077</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>2078</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>2079</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>2080</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>2081</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>2082</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>2083</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>2084</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>2085</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>2086</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>2087</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>2088</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>2089</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>2090</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>2091</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>2092</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>2093</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>2094</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>2095</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>2096</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>2097</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>2098</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>2099</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>62.95</v>
       </c>
       <c r="B2">
@@ -15069,49 +16357,49 @@
         <v>126760.26927986107</v>
       </c>
       <c r="AP2">
-        <v>125420.47662290682</v>
+        <v>126814.63065410464</v>
       </c>
       <c r="AQ2">
-        <v>124080.68396595257</v>
+        <v>126868.99202834821</v>
       </c>
       <c r="AR2">
-        <v>122740.89130899831</v>
+        <v>126923.35340259178</v>
       </c>
       <c r="AS2">
-        <v>121401.09865204406</v>
+        <v>126977.71477683535</v>
       </c>
       <c r="AT2">
-        <v>120061.30599508983</v>
+        <v>127032.07615107892</v>
       </c>
       <c r="AU2">
-        <v>120200.21170852453</v>
+        <v>127086.43752532249</v>
       </c>
       <c r="AV2">
-        <v>120339.11742195922</v>
+        <v>127140.79889956606</v>
       </c>
       <c r="AW2">
-        <v>120478.02313539392</v>
+        <v>127195.16027380963</v>
       </c>
       <c r="AX2">
-        <v>120616.9288488286</v>
+        <v>127249.5216480532</v>
       </c>
       <c r="AY2">
-        <v>120755.83456226334</v>
+        <v>127303.88302229677</v>
       </c>
       <c r="AZ2">
-        <v>121850.28309744994</v>
+        <v>127358.24439654034</v>
       </c>
       <c r="BA2">
-        <v>122944.73163263655</v>
+        <v>127412.60577078391</v>
       </c>
       <c r="BB2">
-        <v>124039.18016782316</v>
+        <v>127466.96714502748</v>
       </c>
       <c r="BC2">
-        <v>125133.62870300976</v>
+        <v>127521.32851927105</v>
       </c>
       <c r="BD2">
-        <v>126228.07723819641</v>
+        <v>127575.68989351462</v>
       </c>
       <c r="BE2">
         <v>127630.05126775811</v>

--- a/Recycling/WIND Installed capacity.xlsx
+++ b/Recycling/WIND Installed capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Recycling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\GreenTechs\Recycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="14_{0C8DC3DD-D946-4783-8604-461B209D86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E694B2-307C-4EB9-90F5-5A636B841DBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7355131E-0DBF-4058-875E-CADA830C9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9460" yWindow="8310" windowWidth="8650" windowHeight="8430" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="137">
   <si>
     <t>Installed renewable electricity capacity (MW) by Region/country/area, Technology and Year</t>
   </si>
@@ -437,9 +437,6 @@
     <t>Add (2043)</t>
   </si>
   <si>
-    <t>USD/kW</t>
-  </si>
-  <si>
     <t>Unit of Measure</t>
   </si>
   <si>
@@ -450,6 +447,12 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>MUSD/kW</t>
+  </si>
+  <si>
+    <t>(million USD)</t>
   </si>
 </sst>
 </file>
@@ -8331,7 +8334,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B38"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8927,25 +8930,28 @@
         <v>0.13099250353443914</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>132</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>133</v>
       </c>
-      <c r="B37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -8957,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F78B869-0DF3-4244-AC5C-1C86B06A6535}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CW2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9270,307 +9276,307 @@
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="B2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="C2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="D2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="E2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="F2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="G2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="H2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="I2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="J2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="K2">
-        <v>4875.53</v>
+        <v>4.8755299999999994E-3</v>
       </c>
       <c r="L2">
-        <v>5584.12</v>
+        <v>5.5841199999999997E-3</v>
       </c>
       <c r="M2">
-        <v>4941.8100000000004</v>
+        <v>4.9418100000000005E-3</v>
       </c>
       <c r="N2">
-        <v>5222.7299999999996</v>
+        <v>5.2227299999999992E-3</v>
       </c>
       <c r="O2">
-        <v>5499.21</v>
+        <v>5.49921E-3</v>
       </c>
       <c r="P2">
-        <v>5515.16</v>
+        <v>5.5151599999999999E-3</v>
       </c>
       <c r="Q2">
-        <v>4342.4799999999996</v>
+        <v>4.3424799999999993E-3</v>
       </c>
       <c r="R2">
-        <v>4905.6099999999997</v>
+        <v>4.9056099999999995E-3</v>
       </c>
       <c r="S2">
-        <v>4798.1000000000004</v>
+        <v>4.7981000000000005E-3</v>
       </c>
       <c r="T2">
-        <v>3844.2</v>
+        <v>3.8441999999999999E-3</v>
       </c>
       <c r="U2">
-        <v>3255.11</v>
+        <v>3.2551100000000003E-3</v>
       </c>
       <c r="V2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="W2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="X2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="Y2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="Z2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AA2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AB2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AC2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AD2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AE2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AF2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AG2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AH2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AI2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AJ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AK2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AL2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AM2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AN2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AO2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AP2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AQ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AR2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AS2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AT2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AU2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AV2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AW2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AX2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AY2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="AZ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BA2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BB2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BC2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BD2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BE2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BF2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BG2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BH2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BI2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BJ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BK2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BL2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BM2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BN2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BO2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BP2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BQ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BR2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BS2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BT2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BU2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BV2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BW2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BX2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BY2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="BZ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CA2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CB2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CC2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CD2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CE2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CF2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CG2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CH2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CI2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CJ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CK2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CL2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CM2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CN2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CO2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CP2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CQ2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CR2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CS2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CT2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CU2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CV2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
       <c r="CW2">
-        <v>2857.7</v>
+        <v>2.8576999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15296,8 +15302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0FCB79-2784-4B52-8A80-5C88BDEF2E58}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15609,307 +15615,307 @@
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="B2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="C2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="D2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="E2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="F2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="G2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="H2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="I2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="J2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="K2">
-        <v>2042.379565795</v>
+        <v>2.0423795657949998E-3</v>
       </c>
       <c r="L2">
-        <v>2003.9103489260001</v>
+        <v>2.0039103489260003E-3</v>
       </c>
       <c r="M2">
-        <v>1904.2344789379999</v>
+        <v>1.904234478938E-3</v>
       </c>
       <c r="N2">
-        <v>1962.2156091009999</v>
+        <v>1.9622156091009999E-3</v>
       </c>
       <c r="O2">
-        <v>1894.432877042</v>
+        <v>1.8944328770419999E-3</v>
       </c>
       <c r="P2">
-        <v>1724.514662387</v>
+        <v>1.724514662387E-3</v>
       </c>
       <c r="Q2">
-        <v>1729.4095054740001</v>
+        <v>1.729409505474E-3</v>
       </c>
       <c r="R2">
-        <v>1728.5829808819999</v>
+        <v>1.728582980882E-3</v>
       </c>
       <c r="S2">
-        <v>1635.633155966</v>
+        <v>1.6356331559659999E-3</v>
       </c>
       <c r="T2">
-        <v>1553.3817689970001</v>
+        <v>1.5533817689970001E-3</v>
       </c>
       <c r="U2">
-        <v>1396.50929922</v>
+        <v>1.3965092992200001E-3</v>
       </c>
       <c r="V2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="W2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="X2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="Y2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="Z2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AA2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AB2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AC2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AD2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AE2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AF2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AG2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AH2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AI2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AJ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AK2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AL2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AM2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AN2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AO2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AP2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AQ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AR2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AS2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AT2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AU2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AV2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AW2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AX2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AY2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="AZ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BA2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BB2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BC2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BD2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BE2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BF2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BG2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BH2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BI2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BJ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BK2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BL2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BM2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BN2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BO2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BP2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BQ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BR2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BS2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BT2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BU2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BV2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BW2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BX2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BY2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="BZ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CA2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CB2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CC2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CD2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CE2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CF2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CG2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CH2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CI2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CJ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CK2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CL2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CM2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CN2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CO2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CP2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CQ2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CR2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CS2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CT2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CU2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CV2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
       <c r="CW2">
-        <v>1325.1994007759999</v>
+        <v>1.3251994007760001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15921,7 +15927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA6C78-93EF-4EAE-87B0-239DA542AADB}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
